--- a/TestData/LV_TMTT0036859_VerifyTheFunctionalityOfDNDSharingFeatureForCFLOBOpportunityAndEngagementOnLightningView.xlsx
+++ b/TestData/LV_TMTT0036859_VerifyTheFunctionalityOfDNDSharingFeatureForCFLOBOpportunityAndEngagementOnLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC2156-313A-4646-AE0A-440572CB0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D7B666-B366-4F05-8B7D-A1F839EF9124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUser" sheetId="2" r:id="rId1"/>
@@ -310,10 +310,10 @@
     <t>BUS - Business Services</t>
   </si>
   <si>
-    <t>Brian Miller</t>
-  </si>
-  <si>
     <t>Ajay Nair</t>
+  </si>
+  <si>
+    <t>Jennie Stewart</t>
   </si>
 </sst>
 </file>
@@ -663,14 +663,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -681,7 +681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -698,16 +698,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DA895-5616-4092-9340-8DD85852997B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,9 +718,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -738,18 +738,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4767743C-3404-461F-B12D-D05F4986F9CF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -771,9 +771,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -792,17 +792,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -820,22 +820,22 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -854,21 +854,21 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,7 +963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1072,33 +1072,33 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>82</v>
       </c>
@@ -1124,19 +1124,19 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1201,13 +1201,13 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
